--- a/resources/maed-2.0.0/maed_results.xlsx
+++ b/resources/maed-2.0.0/maed_results.xlsx
@@ -11,7 +11,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
-    <t>IEA_template_Benin__2023-03-31_10-37-43</t>
+    <t>IEA_template_Vietnam__2023-04-20_14-46-06</t>
   </si>
   <si>
     <t>1. GDP</t>
